--- a/data/trans_camb/P25A_10_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_10_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,57</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,43</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,45</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,8</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,33</t>
+          <t>-0,7; 6,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 4,2</t>
+          <t>-2,84; 3,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 44,78</t>
+          <t>-1,37; 6,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 1,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 25,78</t>
+          <t>-4,22; 6,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,31</t>
+          <t>-4,25; 5,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,83</t>
+          <t>2,37; 17,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,24; 29,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 5,04</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 3,63</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 12,01</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>235,53%</t>
+          <t>263,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>144,29%</t>
+          <t>130,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2416,88%</t>
+          <t>238,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-25,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-29,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>151,3%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,58%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-16,69%</t>
+          <t>134,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>315,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43,28%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23,34%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>156,33%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,37; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-71,21; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>221,77; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,2; 27,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,23; 21,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,73; 325,31</t>
+          <t>-41,99; 147,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 50,66</t>
+          <t>-42,25; 148,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 40,0</t>
+          <t>15,39; 403,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>143,63; 601,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-28,16; 185,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-35,49; 134,97</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 421,11</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,5</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,04</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,38</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,77</t>
+          <t>-1,98; 1,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,03</t>
+          <t>-1,92; 0,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 35,72</t>
+          <t>-1,82; 2,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 30,47</t>
+          <t>-2,82; 1,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,34</t>
+          <t>-1,46; 4,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,12</t>
+          <t>1,66; 8,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 27,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 0,7</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 2,03</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 4,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,54%</t>
+          <t>-16,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,13%</t>
+          <t>-23,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1847,77%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-30,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>525,07%</t>
+          <t>-25,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-29,29%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>158,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>837,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-23,59%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>115,24%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,52; 219,29</t>
+          <t>-86,99; 305,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,6; 278,61</t>
+          <t>-80,5; 224,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>525,09; 5644,72</t>
+          <t>-86,45; 541,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,5; 30,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,14; 68,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>263,13; 977,62</t>
+          <t>-67,54; 75,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,23; 20,45</t>
+          <t>-41,31; 241,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,88; 57,66</t>
+          <t>37,64; 555,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>458,94; 1424,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-62,91; 54,19</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-43,3; 140,5</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>19,14; 323,6</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,02</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,84</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,61</t>
+          <t>-1,82; 1,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,78</t>
+          <t>-2,08; 0,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; -0,18</t>
+          <t>-2,19; 0,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,13; 38,03</t>
+          <t>-4,82; 0,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,43</t>
+          <t>-5,72; -0,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; -0,02</t>
+          <t>-3,25; 2,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 33,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; -0,03</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; -0,53</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 1,16</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>144,98%</t>
+          <t>-21,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,94%</t>
+          <t>-37,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-50,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-52,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-69,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>778,58%</t>
+          <t>-59,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-14,52%</t>
+          <t>-78,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-56,76%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1073,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-51,32%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-70,5%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-14,56%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1238,39 +1616,69 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-84,9; 23,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-91,71; -18,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>189,03; 1900,32</t>
+          <t>-84,44; 13,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,4; 149,18</t>
+          <t>-95,23; -36,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-84,31; 10,64</t>
+          <t>-61,27; 116,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>306,8; 2857,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-81,49; 6,33</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-88,8; -25,67</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-62,88; 80,49</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,99</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,75</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>-0,58</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>20,75</t>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,78</t>
+          <t>-0,61; 4,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,84; 30,52</t>
+          <t>-0,74; 2,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,9; 25,94</t>
+          <t>-5,27; 1,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,33</t>
+          <t>-2,56; 5,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,07; 26,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 1,67</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 3,21</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>78,43%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2187,97%</t>
+          <t>57,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-28,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-28,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>399,23%</t>
+          <t>-28,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-12,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-19,39%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>696,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-15,23%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 289,77</t>
+          <t>-67,31; 1460,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,14; 183,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>923,52; 5137,93</t>
+          <t>-66,47; 639,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,06; 4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,3; 7,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>239,49; 610,5</t>
+          <t>-62,69; 40,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,13; 25,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 14,04</t>
+          <t>-32,21; 117,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>468,24; 971,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-55,59; 55,21</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-33,57; 104,29</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 1,66</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 0,83</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 1,38</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 0,14</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 0,67</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 5,72</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 0,53</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 0,43</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 3,27</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>50,62%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>44,73%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-27,87%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-24,96%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>64,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-14,8%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-19,37%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>61,23%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-28,13; 239,62</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-48,79; 123,64</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-35,23; 199,17</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-49,8; 3,06</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-48,88; 18,12</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 132,64</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-38,19; 20,0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-43,34; 17,54</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>21,46; 123,88</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
